--- a/xlsx/国务院发展研究中心_intext.xlsx
+++ b/xlsx/国务院发展研究中心_intext.xlsx
@@ -29,7 +29,7 @@
     <t>印章</t>
   </si>
   <si>
-    <t>政策_政策_智庫_国务院发展研究中心</t>
+    <t>政策_政策_智库_国务院发展研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%BE%84</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E4%B8%80%E9%B3%B4</t>
   </si>
   <si>
-    <t>王一鳴</t>
+    <t>王一鸣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E7%A3%90</t>
   </si>
   <si>
-    <t>張磐</t>
+    <t>张磐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%BA%86%E4%BC%9F_(%E4%B8%AD%E5%85%B1%E5%AE%98%E5%91%98)</t>
@@ -1301,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中央人民政府駐香港特別行政區聯絡辦公室</t>
+    <t>中央人民政府驻香港特别行政区联络办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中央人民政府駐澳門特別行政區聯絡辦公室</t>
+    <t>中央人民政府驻澳门特别行政区联络办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%9C%89%E9%87%8D%E7%82%B9%E5%A4%A7%E5%9E%8B%E4%BC%81%E4%B8%9A%E7%9B%91%E4%BA%8B%E4%BC%9A</t>
@@ -5688,7 +5688,7 @@
         <v>238</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6239,7 +6239,7 @@
         <v>270</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7051,7 +7051,7 @@
         <v>270</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7196,7 +7196,7 @@
         <v>318</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -9719,7 +9719,7 @@
         <v>238</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -9980,7 +9980,7 @@
         <v>18</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
